--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2572828.801162706</v>
+        <v>2677768.031338074</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9003316.223066837</v>
+        <v>9019633.670127464</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>335.6867297076143</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>65.81126298634642</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>108.5283461411743</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>261.0363737428651</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>257.4740806085287</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247499</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734099341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>74.75769145492295</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>226.1780865011914</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>110.9192708864252</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>171.7980216513609</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>13.73530533531608</v>
       </c>
       <c r="C10" t="n">
-        <v>85.36904013111008</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695518</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012156</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V13" t="n">
-        <v>71.60395572454262</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>114.2821160880067</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1895,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>94.64226186542876</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>16.92025364381838</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>20.89983420622057</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>103.2360561910033</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>59.45282559760549</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>20.25102067617374</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.092968625669</v>
+        <v>116.9323399797389</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>211.147499124903</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>252.069646641626</v>
+        <v>189.2380031216297</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4774956074563874</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>32.57570591153716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.85665993309993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1110.08818560131</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>1110.08818560131</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1110.08818560131</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1110.08818560131</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1110.08818560131</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>482.9033490193033</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>777.6069060507751</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1528.154053606941</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>1860.224488783103</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441.1652223009114</v>
+        <v>1760.999568691319</v>
       </c>
       <c r="C4" t="n">
-        <v>441.1652223009114</v>
+        <v>1760.999568691319</v>
       </c>
       <c r="D4" t="n">
-        <v>441.1652223009114</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E4" t="n">
-        <v>441.1652223009114</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>441.1652223009114</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="G4" t="n">
-        <v>273.4623856756303</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415546</v>
+        <v>2170.637584419576</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.012987209659</v>
+        <v>2170.637584419576</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.595817172699</v>
+        <v>2170.637584419576</v>
       </c>
       <c r="X4" t="n">
-        <v>843.6062662746813</v>
+        <v>1942.648033521559</v>
       </c>
       <c r="Y4" t="n">
-        <v>622.8136871311511</v>
+        <v>1942.648033521559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="D5" t="n">
-        <v>934.567370137326</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>934.567370137326</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477183</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927148</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296683</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609169</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883005</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2812.000515985501</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W5" t="n">
-        <v>2812.000515985501</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>1897.83159218888</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811061</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999791</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387279</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332724</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601574</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927755</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064296</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>777.6069060507738</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125854</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619334</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431605</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199862</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471661</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266128</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501174</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836207</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836207</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218338</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218338</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218338</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242372</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>885.7927713071094</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621287</v>
+        <v>885.7927713071094</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251681</v>
+        <v>885.7927713071094</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271508</v>
+        <v>657.8032204090921</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836207</v>
+        <v>657.8032204090921</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.277735635578</v>
+        <v>2098.94140762926</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>1729.978890688848</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.7846764101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.251321206705</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.482665936591</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.016907675511</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1671.877575699699</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4887,13 +4889,13 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>618.4760397199813</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398575</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672846</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798489</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798489</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.258169761529</v>
+        <v>1326.280305378586</v>
       </c>
       <c r="X10" t="n">
-        <v>839.2686188635114</v>
+        <v>1326.280305378586</v>
       </c>
       <c r="Y10" t="n">
-        <v>618.4760397199813</v>
+        <v>1105.487726235056</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>221.3431781811725</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>221.3431781811725</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187003</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356187</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232831</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408901</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429798</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172273</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135312</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237295</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093765</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5345,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
         <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543961</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>189.4149073564858</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5832,25 +5834,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.8178837532264</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.248478625014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.258927726996</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.4663485834661</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,31 +6001,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>2231.588527385791</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>2828.967015012343</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>3456.56497856695</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>4008.474708806237</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>4432.097858301305</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4665.359518676187</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3006.417838136243</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C25" t="n">
-        <v>2837.481655208336</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D25" t="n">
-        <v>2687.365015796</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>2539.451922213607</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2418.621364762389</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2913.946970978148</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3511.3254586047</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>4138.923422159307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398593</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3173.601046153952</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3911.80034623246</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3622.383176195499</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3394.393625297482</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3173.601046153952</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6458,28 +6460,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6491,22 +6493,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058937</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2588.787486630497</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2421.591387345377</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T34" t="n">
-        <v>1983.7822433412</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U34" t="n">
-        <v>1983.7822433412</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>120.680066384834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>454.6048385560546</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3194.624135499465</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159223</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3966.71534464033</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="V37" t="n">
-        <v>3712.030856434443</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W37" t="n">
-        <v>3422.613686397483</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X37" t="n">
-        <v>3194.624135499465</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y37" t="n">
-        <v>3194.624135499465</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4681.594624329724</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>4498.739789984628</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>4279.13832500757</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>2728.681520806316</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>3326.060008432868</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>3953.657971987475</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356203</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356203</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232844</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408912</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429807</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578605</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7587,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611857</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1111.37944216586</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.37944216586</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7670,28 +7672,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273899</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.4490126143857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>60.35797727397556</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V13" t="n">
-        <v>180.5336875992853</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>32.15184655856251</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>70.88187642684008</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>265.2846401830236</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>45.37941682720901</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>85.96822242532576</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>231.8866226476543</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.73901155626828</v>
+        <v>62.89964020219837</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219412</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>34.11482774761811</v>
+        <v>96.94647126761447</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194085</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.1071577446384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>193.1339494775002</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.7279934189949</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>788528.8968812418</v>
+        <v>796847.595382741</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>788528.8968812418</v>
+        <v>796847.595382741</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156785</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914274</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.2351281079</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810802</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810799</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756721</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756637</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756655</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756653</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756652</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.20035675661</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.20035675663</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="D5" t="n">
         <v>107933.9405613933</v>
-      </c>
-      <c r="C5" t="n">
-        <v>107933.9405613932</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613932</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868369.505525667</v>
+        <v>-687582.4138164397</v>
       </c>
       <c r="C6" t="n">
-        <v>460375.2402019259</v>
+        <v>427169.36975948</v>
       </c>
       <c r="D6" t="n">
-        <v>460375.2402019253</v>
+        <v>267748.0997615879</v>
       </c>
       <c r="E6" t="n">
-        <v>209845.0877639854</v>
+        <v>209845.0877639861</v>
       </c>
       <c r="F6" t="n">
-        <v>535257.5495713411</v>
+        <v>535257.5495713408</v>
       </c>
       <c r="G6" t="n">
         <v>535257.5495713413</v>
       </c>
       <c r="H6" t="n">
+        <v>535257.5495713415</v>
+      </c>
+      <c r="I6" t="n">
         <v>535257.5495713414</v>
       </c>
-      <c r="I6" t="n">
-        <v>535257.5495713413</v>
-      </c>
       <c r="J6" t="n">
-        <v>317726.3471740638</v>
+        <v>367652.3717613589</v>
       </c>
       <c r="K6" t="n">
-        <v>535257.5495713416</v>
+        <v>535257.5495713415</v>
       </c>
       <c r="L6" t="n">
-        <v>535257.5495713413</v>
+        <v>486963.5795631503</v>
       </c>
       <c r="M6" t="n">
-        <v>450202.5216358296</v>
+        <v>450202.5216358291</v>
       </c>
       <c r="N6" t="n">
-        <v>535257.5495713414</v>
+        <v>535257.5495713415</v>
       </c>
       <c r="O6" t="n">
         <v>535257.5495713413</v>
       </c>
       <c r="P6" t="n">
-        <v>535257.5495713413</v>
+        <v>535257.5495713411</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>279.2259094596459</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71.18931603409709</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>82.80421003186594</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>36.22666877314644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>93.64666787781783</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>70.27817786160625</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>73.85778156328941</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>60.04906762000925</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>243.7637707342577</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>155.954236818774</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>166.0966748466212</v>
       </c>
       <c r="C10" t="n">
-        <v>81.87778096751775</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29290,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>253.8670488165995</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31847,7 +31849,7 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>469.5567819573415</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071783</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -32084,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32317,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32491,10 +32493,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32552,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179101</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305189</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33263,28 +33265,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>453.4978307576758</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,16 +33736,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>153.972377511982</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,7 +33976,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33986,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>351.5042614518788</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>651.5998000366017</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,10 +34447,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>373.0365088578706</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>358.0383379118259</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>127.0294221499328</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>327.4227480353231</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.937336923845</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396407</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35732,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36139,10 +36141,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394616</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>314.9434509778017</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>27.13475084531533</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>208.9080170074344</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>509.0035555921573</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712623</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2677768.031338074</v>
+        <v>2673672.389833307</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>147.9367604785725</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>335.6867297076143</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>65.81126298634642</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -867,13 +867,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>117.601864695219</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>261.0363737428651</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>197.3791147793481</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>226.1780865011914</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>137.7336954102803</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>110.9192708864252</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>130.9134267536698</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.73530533531608</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>87.52274688849819</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>33.26272630933912</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>155.0500112286387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>101.6969570046971</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>16.92025364381838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>94.91529601901384</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>103.2360561910033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>159.4257716218678</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.07916359105417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.9323399797389</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>189.2380031216297</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1110.08818560131</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="C2" t="n">
-        <v>1110.08818560131</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="D2" t="n">
-        <v>1110.08818560131</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1110.08818560131</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190807</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847236</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577122</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>1500.227517577122</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1110.08818560131</v>
+        <v>1479.530414586155</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193033</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507751</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606941</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783103</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1760.999568691319</v>
+        <v>789.6534264926422</v>
       </c>
       <c r="C4" t="n">
-        <v>1760.999568691319</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915738</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915738</v>
+        <v>1415.072951271677</v>
       </c>
       <c r="T4" t="n">
-        <v>2459.755921915738</v>
+        <v>1192.094470466412</v>
       </c>
       <c r="U4" t="n">
-        <v>2170.637584419576</v>
+        <v>1192.094470466412</v>
       </c>
       <c r="V4" t="n">
-        <v>2170.637584419576</v>
+        <v>1192.094470466412</v>
       </c>
       <c r="W4" t="n">
-        <v>2170.637584419576</v>
+        <v>1192.094470466412</v>
       </c>
       <c r="X4" t="n">
-        <v>1942.648033521559</v>
+        <v>1192.094470466412</v>
       </c>
       <c r="Y4" t="n">
-        <v>1942.648033521559</v>
+        <v>971.3018913228819</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1897.83159218888</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C5" t="n">
-        <v>1897.83159218888</v>
+        <v>709.7270322910251</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>709.7270322910251</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>323.9387796927809</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>316.9932789435774</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872917</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.83159218888</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.83159218888</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>1897.83159218888</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y5" t="n">
-        <v>1897.83159218888</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>114.5432626034356</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>299.2648838844856</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507738</v>
+        <v>593.9684409159572</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>476.1547555788524</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>307.2185726509455</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386097</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>885.7927713071094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>885.7927713071094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>885.7927713071094</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="X7" t="n">
-        <v>657.8032204090921</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y7" t="n">
-        <v>657.8032204090921</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2098.94140762926</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="C8" t="n">
-        <v>1729.978890688848</v>
+        <v>1693.368256178216</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1335.102557571466</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>949.3143049732214</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>538.3284001836139</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.94140762926</v>
+        <v>2062.330773118628</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>697.1642891453644</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>547.0476497330286</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>399.1345561506355</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>252.2446086527251</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>252.2446086527251</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415547</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.280305378586</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.280305378586</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.487726235056</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>221.3431781811725</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811725</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969311</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2413.364370136484</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2230.509535791388</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2230.509535791388</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1941.434309135586</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
         <v>680.0291294438176</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,19 +5652,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>196.5408620426154</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1052.829365488568</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>883.8931825606608</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1683.259960360355</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.270409462337</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1234.477830318807</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558404</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630497</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630497</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630497</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2588.787486630497</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2421.591387345377</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388644</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991043</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711974</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1786.311582407852</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1786.311582407852</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1496.894412370891</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.904861472874</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2815.530845237133</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4681.594624329724</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4498.739789984628</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4279.13832500757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3445.96144010892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3217.971889210903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2997.179310067373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>255.8421700460954</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883073781</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>60.35797727397556</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>33.11252040078257</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>45.37941682721005</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>45.37941682720901</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>126.7587027673763</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.5054897610406</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.89964020219837</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>96.94647126761447</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194085</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156785</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914274</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520051</v>
@@ -26355,7 +26355,7 @@
         <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26432,22 +26432,22 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756655</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26456,10 +26456,10 @@
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-687582.4138164397</v>
+        <v>-687582.41381644</v>
       </c>
       <c r="C6" t="n">
-        <v>427169.36975948</v>
+        <v>427169.3697594798</v>
       </c>
       <c r="D6" t="n">
-        <v>267748.0997615879</v>
+        <v>267748.0997615876</v>
       </c>
       <c r="E6" t="n">
-        <v>209845.0877639861</v>
+        <v>209497.708509629</v>
       </c>
       <c r="F6" t="n">
-        <v>535257.5495713408</v>
+        <v>534910.1703169845</v>
       </c>
       <c r="G6" t="n">
-        <v>535257.5495713413</v>
+        <v>534910.1703169844</v>
       </c>
       <c r="H6" t="n">
-        <v>535257.5495713415</v>
+        <v>534910.1703169844</v>
       </c>
       <c r="I6" t="n">
-        <v>535257.5495713414</v>
+        <v>534910.1703169842</v>
       </c>
       <c r="J6" t="n">
-        <v>367652.3717613589</v>
+        <v>367304.9925070016</v>
       </c>
       <c r="K6" t="n">
-        <v>535257.5495713415</v>
+        <v>534910.1703169843</v>
       </c>
       <c r="L6" t="n">
-        <v>486963.5795631503</v>
+        <v>486616.2003087936</v>
       </c>
       <c r="M6" t="n">
-        <v>450202.5216358291</v>
+        <v>449855.1423814726</v>
       </c>
       <c r="N6" t="n">
-        <v>535257.5495713415</v>
+        <v>534910.1703169845</v>
       </c>
       <c r="O6" t="n">
-        <v>535257.5495713413</v>
+        <v>534910.1703169843</v>
       </c>
       <c r="P6" t="n">
-        <v>535257.5495713411</v>
+        <v>534910.1703169841</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>206.7462811421105</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.18931603409709</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>82.80421003186594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>77.06059566651844</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>93.64666787781783</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>214.1685879936059</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>60.04906762000925</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>148.7893029263107</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>243.7637707342577</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>280.0082988997837</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.0966748466212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>57.23226802582259</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>253.8670488165995</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32077,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N21" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32575,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33262,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,13 +33654,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578706</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>591.2668520422184</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>63.93583437922477</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>358.0383379118259</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>127.0294221499328</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36141,10 +36141,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N21" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36223,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2673672.389833307</v>
+        <v>2675432.920136094</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9019633.670127464</v>
+        <v>9019633.670127466</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>147.9367604785725</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>209.4400229428946</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -867,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>117.601864695219</v>
+        <v>163.7300498653537</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>197.3791147793481</v>
+        <v>228.9340118147192</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>137.7336954102803</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>130.9134267536698</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>140.3578935194473</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>87.52274688849819</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>130.0827834175493</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>33.26272630933912</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>220.864501724972</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>94.91529601901384</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>159.4257716218678</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>87.21471514852939</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>130.732365546955</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>115.4764219077138</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629291</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1479.530414586155</v>
+        <v>740.1619192519188</v>
       </c>
       <c r="C2" t="n">
-        <v>1479.530414586155</v>
+        <v>740.1619192519188</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>740.1619192519188</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>740.1619192519188</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>329.1760144623112</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4363,19 +4363,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1479.530414586155</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1479.530414586155</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>789.6534264926422</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C4" t="n">
-        <v>620.7172435647353</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1415.072951271677</v>
+        <v>1368.478824837197</v>
       </c>
       <c r="T4" t="n">
-        <v>1192.094470466412</v>
+        <v>1368.478824837197</v>
       </c>
       <c r="U4" t="n">
-        <v>1192.094470466412</v>
+        <v>1368.478824837197</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.094470466412</v>
+        <v>1368.478824837197</v>
       </c>
       <c r="W4" t="n">
-        <v>1192.094470466412</v>
+        <v>1368.478824837197</v>
       </c>
       <c r="X4" t="n">
-        <v>1192.094470466412</v>
+        <v>1140.48927393918</v>
       </c>
       <c r="Y4" t="n">
-        <v>971.3018913228819</v>
+        <v>919.6966947956497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.689549231437</v>
+        <v>1468.828881207249</v>
       </c>
       <c r="C5" t="n">
-        <v>709.7270322910251</v>
+        <v>1099.866364266837</v>
       </c>
       <c r="D5" t="n">
-        <v>709.7270322910251</v>
+        <v>741.6006656600869</v>
       </c>
       <c r="E5" t="n">
-        <v>323.9387796927809</v>
+        <v>355.8124130618426</v>
       </c>
       <c r="F5" t="n">
-        <v>316.9932789435774</v>
+        <v>348.8669123126392</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.42872127137</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.289389295559</v>
+        <v>1855.428721271371</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
@@ -4646,28 +4646,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034356</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844856</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159572</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751772</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1497.321175215628</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1269.331624317611</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2062.330773118628</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1693.368256178216</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1335.102557571466</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3143049732214</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3284001836139</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3073.539503116623</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3073.539503116623</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2742.476615773052</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2389.707960502938</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118628</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>2062.330773118628</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>866.1004720732712</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>697.1642891453644</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>547.0476497330286</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>399.1345561506355</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>252.2446086527251</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>252.2446086527251</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5123,10 +5123,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
         <v>949.9304447718133</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2413.364370136484</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2230.509535791388</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2230.509535791388</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1941.434309135586</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.749820929699</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1397.332650892738</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.343099994721</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.5505208511906</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5427,7 +5427,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,19 +5652,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1052.829365488567</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>883.8931825606599</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>733.7765431483241</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>585.863449565931</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>438.9735020680206</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>271.7774027829005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.677130397314</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1683.259960360354</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.270409462336</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1234.477830318806</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1883.470651306724</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1628.786163100837</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.368993063877</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.379442165859</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6542,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
         <v>484.8112968429803</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,19 +7016,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
         <v>484.8112968429803</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.9531451156648</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460954</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883073781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>33.11252040078257</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>45.37941682721005</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>61.40075786968296</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.54986409393081</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156785</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26432,13 +26432,13 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
@@ -26453,7 +26453,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-687582.41381644</v>
+        <v>-687582.4138164397</v>
       </c>
       <c r="C6" t="n">
-        <v>427169.3697594798</v>
+        <v>427169.36975948</v>
       </c>
       <c r="D6" t="n">
-        <v>267748.0997615876</v>
+        <v>267748.0997615873</v>
       </c>
       <c r="E6" t="n">
-        <v>209497.708509629</v>
+        <v>209810.3498385506</v>
       </c>
       <c r="F6" t="n">
-        <v>534910.1703169845</v>
+        <v>535222.8116459054</v>
       </c>
       <c r="G6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.8116459058</v>
       </c>
       <c r="H6" t="n">
-        <v>534910.1703169844</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="I6" t="n">
-        <v>534910.1703169842</v>
+        <v>535222.8116459056</v>
       </c>
       <c r="J6" t="n">
-        <v>367304.9925070016</v>
+        <v>367617.633835923</v>
       </c>
       <c r="K6" t="n">
-        <v>534910.1703169843</v>
+        <v>535222.8116459054</v>
       </c>
       <c r="L6" t="n">
-        <v>486616.2003087936</v>
+        <v>486928.8416377148</v>
       </c>
       <c r="M6" t="n">
-        <v>449855.1423814726</v>
+        <v>450167.7837103938</v>
       </c>
       <c r="N6" t="n">
-        <v>534910.1703169845</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="O6" t="n">
-        <v>534910.1703169843</v>
+        <v>535222.8116459055</v>
       </c>
       <c r="P6" t="n">
-        <v>534910.1703169841</v>
+        <v>535222.8116459056</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>206.7462811421105</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>202.1076798300594</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>77.06059566651844</v>
+        <v>30.9324104963838</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>214.1685879936059</v>
+        <v>182.6136909582348</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>148.7893029263107</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>280.0082988997837</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>63.56007662017282</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>57.23226802582259</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>156.4402149190417</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,13 +31843,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -32077,31 +32077,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,7 +32791,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>591.2668520422184</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922477</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35652,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
